--- a/excel_inputs.xlsx
+++ b/excel_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\PycharmProjects\ChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE792B7-D9CF-4DF7-B469-C9E19C79A323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE2129-6B6B-447C-A9CF-799887BB9DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{895BAE13-F589-43BC-8D16-6C3E0587D3D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{895BAE13-F589-43BC-8D16-6C3E0587D3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>FXOS INPUTS</t>
   </si>
@@ -348,6 +348,30 @@
   </si>
   <si>
     <t>disable</t>
+  </si>
+  <si>
+    <t>Ethernet2/1</t>
+  </si>
+  <si>
+    <t>Ethernet2/2</t>
+  </si>
+  <si>
+    <t>Ethernet2/3</t>
+  </si>
+  <si>
+    <t>Ethernet2/4</t>
+  </si>
+  <si>
+    <t>Ethernet2/5</t>
+  </si>
+  <si>
+    <t>Ethernet2/6</t>
+  </si>
+  <si>
+    <t>Ethernet2/7</t>
+  </si>
+  <si>
+    <t>Ethernet2/8</t>
   </si>
 </sst>
 </file>
@@ -722,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E337D9B-A2B8-4EDD-882D-88A5AC367A34}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,12 +755,11 @@
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="4" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1103,7 +1126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1114,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1125,7 +1148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -1136,7 +1159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1147,7 +1170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1158,7 +1181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -1169,18 +1192,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
@@ -1205,8 +1228,32 @@
       <c r="I42" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
@@ -1234,8 +1281,32 @@
       <c r="I43" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -1263,8 +1334,32 @@
       <c r="I44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -1292,8 +1387,32 @@
       <c r="I45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" t="s">
+        <v>92</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -1321,8 +1440,32 @@
       <c r="I46" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" t="s">
+        <v>96</v>
+      </c>
+      <c r="O46" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -1348,6 +1491,30 @@
         <v>101</v>
       </c>
       <c r="I47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" t="s">
+        <v>101</v>
+      </c>
+      <c r="O47" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1368,19 +1535,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{DD45B346-951E-46F7-B511-3F518E088FD4}">
       <formula1>$O$6:$V$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:I44" xr:uid="{CD3E5844-E6E0-4AFE-B7D3-361D1B566CB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:Q44" xr:uid="{CD3E5844-E6E0-4AFE-B7D3-361D1B566CB8}">
       <formula1>$O$7:$S$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:I45" xr:uid="{CBAF3623-F292-439D-8B76-8DF1F3B0415A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:Q45" xr:uid="{CBAF3623-F292-439D-8B76-8DF1F3B0415A}">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:I46" xr:uid="{54DC73B1-2C35-4A62-9E37-55E4491E0A6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:Q46" xr:uid="{54DC73B1-2C35-4A62-9E37-55E4491E0A6D}">
       <formula1>$O$9:$T$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:I47" xr:uid="{B7CAB6CF-F5BC-4767-A3F5-666688612E74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:Q47" xr:uid="{B7CAB6CF-F5BC-4767-A3F5-666688612E74}">
       <formula1>$O$10:$P$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:I43" xr:uid="{5163868D-9D1A-492C-8C77-52AE533B3D72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:Q43" xr:uid="{5163868D-9D1A-492C-8C77-52AE533B3D72}">
       <formula1>$O$11:$P$11</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_inputs.xlsx
+++ b/excel_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\PycharmProjects\ChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE2129-6B6B-447C-A9CF-799887BB9DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51BD0C-6AF5-41E8-A983-7A2729CBB35B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{895BAE13-F589-43BC-8D16-6C3E0587D3D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{895BAE13-F589-43BC-8D16-6C3E0587D3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="137">
   <si>
     <t>FXOS INPUTS</t>
   </si>
@@ -372,6 +372,75 @@
   </si>
   <si>
     <t>Ethernet2/8</t>
+  </si>
+  <si>
+    <t>Port-Channel1</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Port-Channel2</t>
+  </si>
+  <si>
+    <t>Port-Channel3</t>
+  </si>
+  <si>
+    <t>Port-Channel4</t>
+  </si>
+  <si>
+    <t>Member-port 1</t>
+  </si>
+  <si>
+    <t>Member-port 2</t>
+  </si>
+  <si>
+    <t>Member-port 3</t>
+  </si>
+  <si>
+    <t>Member-port 4</t>
+  </si>
+  <si>
+    <t>Member-port 5</t>
+  </si>
+  <si>
+    <t>Member-port 6</t>
+  </si>
+  <si>
+    <t>Member-port 7</t>
+  </si>
+  <si>
+    <t>Member-port 8</t>
+  </si>
+  <si>
+    <t>Port-channel Mode</t>
+  </si>
+  <si>
+    <t>Port-Channel5</t>
+  </si>
+  <si>
+    <t>Port-Channel6</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Configured?</t>
+  </si>
+  <si>
+    <t>Configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -744,35 +813,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E337D9B-A2B8-4EDD-882D-88A5AC367A34}">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
@@ -786,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -803,7 +871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -820,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,7 +923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
@@ -884,7 +952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,7 +978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,7 +995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,7 +1024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +1041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -990,23 +1058,97 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1518,8 +1660,377 @@
         <v>101</v>
       </c>
     </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataConsolidate/>
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{5E8DB2E3-1F86-4AF5-810B-B45142B47C6A}">
       <formula1>$O$2:$Q$2</formula1>
     </dataValidation>
@@ -1535,20 +2046,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{DD45B346-951E-46F7-B511-3F518E088FD4}">
       <formula1>$O$6:$V$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:Q44" xr:uid="{CD3E5844-E6E0-4AFE-B7D3-361D1B566CB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:Q44 B52:G52" xr:uid="{CD3E5844-E6E0-4AFE-B7D3-361D1B566CB8}">
       <formula1>$O$7:$S$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:Q45" xr:uid="{CBAF3623-F292-439D-8B76-8DF1F3B0415A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:Q45 B53:G53" xr:uid="{CBAF3623-F292-439D-8B76-8DF1F3B0415A}">
       <formula1>$O$8:$P$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:Q46" xr:uid="{54DC73B1-2C35-4A62-9E37-55E4491E0A6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:Q46 B54:G54" xr:uid="{54DC73B1-2C35-4A62-9E37-55E4491E0A6D}">
       <formula1>$O$9:$T$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:Q47" xr:uid="{B7CAB6CF-F5BC-4767-A3F5-666688612E74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:Q48 B55:G55" xr:uid="{B7CAB6CF-F5BC-4767-A3F5-666688612E74}">
       <formula1>$O$10:$P$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:Q43" xr:uid="{5163868D-9D1A-492C-8C77-52AE533B3D72}">
       <formula1>$O$11:$P$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:G56" xr:uid="{E2C0FF50-C598-40BD-B025-E2C956D5735B}">
+      <formula1>$O$12:$P$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:G50" xr:uid="{38EE539B-832D-4BBA-82AF-54BC4EFE2B30}">
+      <formula1>$O$14:$P$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:G64" xr:uid="{037BAB7C-043B-4839-91A7-83C8439F97E9}">
+      <formula1>$O$13:$AE$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
